--- a/models/calculation engines/economic_overlay/outputs/mining_costs/taxes_royalties_Other_allowance_Capital_up_front_costs_charge.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/mining_costs/taxes_royalties_Other_allowance_Capital_up_front_costs_charge.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,9 +541,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>45</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="n">
         <v>0</v>
       </c>
@@ -597,9 +595,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>45</v>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="n">
         <v>0</v>
       </c>
@@ -611,9 +607,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>45</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="n">
         <v>0</v>
       </c>
@@ -765,9 +759,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>45</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
         <v>0</v>
       </c>
@@ -821,9 +813,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>45</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
         <v>0</v>
       </c>
@@ -849,9 +839,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>45</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="n">
         <v>0</v>
       </c>
@@ -947,9 +935,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>45</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
         <v>0</v>
       </c>
@@ -975,9 +961,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>45</v>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
         <v>0</v>
       </c>
@@ -1479,9 +1463,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>45</v>
-      </c>
+      <c r="A75" t="inlineStr"/>
       <c r="B75" t="n">
         <v>0</v>
       </c>
@@ -1493,9 +1475,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>45</v>
-      </c>
+      <c r="A76" t="inlineStr"/>
       <c r="B76" t="n">
         <v>0</v>
       </c>
@@ -2039,9 +2019,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>45</v>
-      </c>
+      <c r="A115" t="inlineStr"/>
       <c r="B115" t="n">
         <v>0</v>
       </c>
@@ -2081,9 +2059,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>45</v>
-      </c>
+      <c r="A118" t="inlineStr"/>
       <c r="B118" t="n">
         <v>0</v>
       </c>
@@ -2305,9 +2281,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>45</v>
-      </c>
+      <c r="A134" t="inlineStr"/>
       <c r="B134" t="n">
         <v>0</v>
       </c>
@@ -2735,6 +2709,188 @@
         <v>15</v>
       </c>
       <c r="D164" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>45</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>15</v>
+      </c>
+      <c r="D165" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>45</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15</v>
+      </c>
+      <c r="D166" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>45</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15</v>
+      </c>
+      <c r="D167" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>45</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15</v>
+      </c>
+      <c r="D168" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>45</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15</v>
+      </c>
+      <c r="D169" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>45</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>15</v>
+      </c>
+      <c r="D170" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>45</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>15</v>
+      </c>
+      <c r="D171" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>45</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>15</v>
+      </c>
+      <c r="D172" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>45</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>15</v>
+      </c>
+      <c r="D173" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>45</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>15</v>
+      </c>
+      <c r="D174" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>45</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>15</v>
+      </c>
+      <c r="D175" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>45</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>15</v>
+      </c>
+      <c r="D176" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>45</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>15</v>
+      </c>
+      <c r="D177" t="n">
         <v>60</v>
       </c>
     </row>
